--- a/biology/Microbiologie/Paranassulidae/Paranassulidae.xlsx
+++ b/biology/Microbiologie/Paranassulidae/Paranassulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Paranassulidae sont une famille de Ciliés de la classe des Nassophorea et de l’ordre des Nassulida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Paranassula, dérivé du grec ancien παρα  / para , « à côté de, presque », et nassula, par allusion au genre Nassula, autre cilié et genre type de la famille des Nassulidae, en raison de la ressemblance de ces deux genres.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Paranassulidae ont une taille, moyenne, généralement &gt; 100 μm de long. Leur forme est ovoïde à allongé-ovoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme). Leur région orale se situe dans le quart antérieur de la cellule avec des structures orales sous forme de 3 à 4 polykinétides à gauche du cytostome dans une fosse buccale peu profonde. Leur cyrtos est bien visible. Leur macronoyau est ellipsoïde à rubané. Un micronoyau est présent. La vacuole contractile se situe sur la surface dorsale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Paranassulidae ont une taille, moyenne, généralement &gt; 100 μm de long. Leur forme est ovoïde à allongé-ovoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme). Leur région orale se situe dans le quart antérieur de la cellule avec des structures orales sous forme de 3 à 4 polykinétides à gauche du cytostome dans une fosse buccale peu profonde. Leur cyrtos est bien visible. Leur macronoyau est ellipsoïde à rubané. Un micronoyau est présent. La vacuole contractile se situe sur la surface dorsale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Paranassulidae vivent dans des habitats marins[1]. Leur répartition est mondiale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Paranassulidae vivent dans des habitats marins. Leur répartition est mondiale.
 </t>
         </is>
       </c>
@@ -604,15 +622,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 juillet 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 juillet 2023) :
 Chilodina Šrámek-Hušek, 1957
 Enneameron Jankowski, 1964
 Paranassula Kahl, 1931 genre type
 Espèce type : Paranassula microstoma (Claparède &amp; Lachmann, 1859) Kahl, 1931
 Basionyme : Paramecium microstomum Claparede &amp; Lachmann 1859
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Enneameron Jankowski, 1964 (Synonyme : Nassulopsis)
 Paranassula Kahl, 1931
 Incertae sedis dans la famille des Paranassulidae
@@ -645,9 +665,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Paranassulidae Fauré-Fremiet, 1962[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Paranassulidae Fauré-Fremiet, 1962.
 </t>
         </is>
       </c>
